--- a/data/product.xlsx
+++ b/data/product.xlsx
@@ -22,226 +22,226 @@
     <t>equipment_class</t>
   </si>
   <si>
+    <t>5c94953dc9e77c0001d5e130</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e12b</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e131</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e141</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e139</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e12d</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e136</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e137</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13c</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13f</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13d</t>
+  </si>
+  <si>
     <t>5c94953dc9e77c0001d5e121</t>
   </si>
   <si>
+    <t>5c94953dc9e77c0001d5e12f</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e128</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e134</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e133</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e138</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13b</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e129</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e140</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e132</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e125</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e142</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e144</t>
+  </si>
+  <si>
     <t>5c94953dc9e77c0001d5e122</t>
   </si>
   <si>
+    <t>5c94953dc9e77c0001d5e135</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e12e</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e124</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e126</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e145</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e12c</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e127</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13a</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e143</t>
+  </si>
+  <si>
+    <t>5c94953dc9e77c0001d5e13e</t>
+  </si>
+  <si>
     <t>5c94953dc9e77c0001d5e123</t>
   </si>
   <si>
-    <t>5c94953dc9e77c0001d5e124</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e125</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e126</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e127</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e128</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e129</t>
-  </si>
-  <si>
     <t>5c94953dc9e77c0001d5e12a</t>
   </si>
   <si>
-    <t>5c94953dc9e77c0001d5e12b</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e12c</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e12d</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e12e</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e12f</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e130</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e131</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e132</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e133</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e134</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e135</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e136</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e137</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e138</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e139</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13a</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13b</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13c</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13d</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13e</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e13f</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e140</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e141</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e142</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e143</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e144</t>
-  </si>
-  <si>
-    <t>5c94953dc9e77c0001d5e145</t>
-  </si>
-  <si>
-    <t>['Колонна хроматографическая', 'Инкубатор', 'Хроматограф газовый', 'Генератор чистого азота', 'Регистратор невидимых частиц', 'Реактор', 'Анализатор светорассеяния']</t>
-  </si>
-  <si>
-    <t>['pH-метр / иономер / кондуктометр', 'Френчпрес', 'Денситометр', 'Тестер распадаемости', 'Диспенсер']</t>
-  </si>
-  <si>
-    <t>['Высокоскоростной смеситель-гранулятор', 'Прибор для определения метаболического профиля культурных сред']</t>
-  </si>
-  <si>
-    <t>['Термостат', 'Лабораторный 3D смеситель', 'Подогреваемый штатив', 'НЕ ИСПОЛЬЗОВАТЬ Лабораторное оборудование', 'Источник бесперебойного питания', 'Лабораторная мебель', 'Система фильтрации воздуха']</t>
-  </si>
-  <si>
-    <t>['Морозильник', 'Станция растворения', 'Генератор чистого водорода', 'Термостат\xa0рециркуляционный', 'Водяная баня', 'Складское оборудование', 'Аппарат для сварки термопластиковых трубок', 'Гель-документирующая система фотографирования', 'Система анализа молекулярных взаимодействий']</t>
-  </si>
-  <si>
-    <t>['ИК-термометр', 'Криохранилище', 'Блок питания', 'Система очистки воды', 'Муфельная печь', 'pH-метр / иономер / кондуктометр']</t>
-  </si>
-  <si>
-    <t>['УФ лампа', 'Система капиллярного электрофореза', 'Система очистки', 'Амплификатор', 'Система гель-документации', 'Термометр электронный', 'Микроскоп', 'Центрифуга', 'Денситометр']</t>
-  </si>
-  <si>
-    <t>['Шейкер', 'Вентиляционный блок', 'Компьютерные системы', 'Анализатор\xa0гематологический', 'Шумомер']</t>
-  </si>
-  <si>
-    <t>['Микробиологический пробоотборник воздуха', 'Система анализа молекулярных взаимодействий', 'Генератор кислорода', 'Денситометр', 'Флуориметр']</t>
-  </si>
-  <si>
-    <t>['Промыватель микропланшетный', 'Мутномер', 'Реактор', 'ПЦР-бокс', 'Осмометр', 'Весы']</t>
-  </si>
-  <si>
-    <t>['Роботизированная станция', 'Аппарат для сварки термопластиковых трубок', 'Льдогенератор', 'Система гель-документации', 'УФ лампа', 'Климатическая камера']</t>
-  </si>
-  <si>
-    <t>['Прибор для запаивания трубок', 'Насос', 'Сушильный\xa0шкаф']</t>
-  </si>
-  <si>
-    <t>['CO2-инкубатор', 'Генератор чистого азота', 'Климатическая камера', 'Криоконтейнер', 'Детектор', 'Криохранилище', 'Генетический анализатор']</t>
-  </si>
-  <si>
-    <t>['Аппарат для сварки термопластиковых трубок', 'Электрод']</t>
-  </si>
-  <si>
-    <t>['Термометр электронный', 'Термошейкер', 'Флуориметр', 'CO2-инкубатор', 'Детектор', 'Инкубатор', 'Анализатор светорассеяния']</t>
-  </si>
-  <si>
-    <t>['Кондуктометр', 'Реактор', 'Камера для электропереноса', 'Блок питания', 'Секундомер\xa0электронный', 'Манифолд вакуумный', 'Подогреваемый штатив', 'Термометр электронный', 'Поляриметр']</t>
-  </si>
-  <si>
-    <t>['Камера для электрофореза', 'Счетчик клеток']</t>
-  </si>
-  <si>
-    <t>['Тестер распадаемости', 'Хромато-масс-спектрометр', 'Тележка', 'Инженерное оборудование', 'Система управления биореактором', 'Низкотемпературная ловушка', 'Хроматограф жидкостный']</t>
-  </si>
-  <si>
-    <t>['Прибор для определения истираемости', 'Биоробот', 'Анализатор биохимический', 'Поляриметр']</t>
-  </si>
-  <si>
-    <t>['Струйная мельница', 'Лабораторный 3D смеситель', 'Шейкер-инкубатор', 'Система визуализации', 'Автоклав', 'Здания и сооружения']</t>
-  </si>
-  <si>
-    <t>['Компрессор', 'Система тангенциальной фильтрации', 'Ультразвуковая ванна']</t>
-  </si>
-  <si>
-    <t>['Хромато-масс-спектрометр', 'Блок питания', 'Спектрометр', 'Фильтродержатель', 'Шумомер', 'Микропланшетный ридер']</t>
-  </si>
-  <si>
-    <t>['Аспиратор', 'Лабораторная мельница для измельчения образцов', 'Насос', 'Камера для определения фотостабильности']</t>
-  </si>
-  <si>
-    <t>['Проточный цитофлуориметр', 'Система управления биореактором', 'Биоробот', 'Вакуумный блок', 'Электропоратор']</t>
-  </si>
-  <si>
-    <t>['Передаточное окно', 'Масс-спектрометр']</t>
-  </si>
-  <si>
-    <t>['Сушильная машина', 'Вакуумный концентратор', 'Процессор магнитных частиц']</t>
-  </si>
-  <si>
-    <t>['Струйная мельница', 'Верхнеприводная мешалка']</t>
-  </si>
-  <si>
-    <t>['Рабочий стол\xa0роботизированной станции', 'Биоанализатор', 'Сухожаровой шкаф', 'Счётчик колоний']</t>
-  </si>
-  <si>
-    <t>['Колонна хроматографическая']</t>
-  </si>
-  <si>
-    <t>['Система визуализации', 'ЗИП', 'Вортекс', 'Кондуктометр', 'Система очистки воды', 'Аппарат для сварки термопластиковых трубок', 'Синтезатор олигонуклеотидов']</t>
-  </si>
-  <si>
-    <t>['Посудомоечная машина', 'Тестер распадаемости', 'Аспиратор', 'Лабораторный 3D смеситель', 'Микроцентрифуга', 'Анализатор динамического светорассеяния']</t>
-  </si>
-  <si>
-    <t>['Титратор', 'Микротом', 'Секундомер\xa0электронный', 'Камера для электрофореза', 'Лабораторная мельница для измельчения образцов', 'Система очистки воды', 'Дозатор', 'Лабораторный 3D смеситель', 'Иммуностейнер']</t>
-  </si>
-  <si>
-    <t>['Складское оборудование', 'Система фильтрации воздуха', 'Пресс ручной', 'Рабочий стол\xa0роботизированной станции', 'Аппарат для окрашивания мазков']</t>
-  </si>
-  <si>
-    <t>['Детектор', 'Вакуумный концентратор', 'Замораживатель програмный', 'Анализатор химический', 'Автомобили', 'УФ лампа', 'Криохранилище']</t>
-  </si>
-  <si>
-    <t>['Ротор']</t>
-  </si>
-  <si>
-    <t>['Муфельная печь', 'Микрофлуидайзер', 'Прибор для определения прочности и размеров таблеток', 'Ультразвуковой дезинтегратор', 'Облучатель бактерицидный', 'Запайщик пакетов']</t>
-  </si>
-  <si>
-    <t>['Аспиратор', 'Анализатор химический', 'Установка тангенциальной фильтрации', 'Автоматизированная система для клеточного клонирования', 'Анализатор жизнеспособности клеток', 'Коническая мельница', 'Манифолд вакуумный', 'Коатер']</t>
+    <t>['Хроматограф жидкостный', 'Насос', 'Принтер для этикеток', 'Сухожаровой шкаф', 'Автостейнер']</t>
+  </si>
+  <si>
+    <t>['Вытяжной шкаф', 'pH-метр', 'Система капиллярного электрофореза']</t>
+  </si>
+  <si>
+    <t>['Манипулятор переносящий', 'Криохранилище', 'Высокоскоростной смеситель-гранулятор', 'Хромато-масс-спектрометр']</t>
+  </si>
+  <si>
+    <t>['Рециркулятор', 'Изолятор', 'Счетчик клеток']</t>
+  </si>
+  <si>
+    <t>['Лабораторное оборудование', 'Синтезатор олигонуклеотидов', 'Производственное оборудование', 'Шейкер', 'Амплификатор', 'Изолятор', 'Аппарат для определения растворимости таблеток', 'Лабораторный 3D смеситель']</t>
+  </si>
+  <si>
+    <t>['Сушильный\xa0шкаф', 'Проточный цитофлуориметр', 'Установка тангенциальной фильтрации', 'Автоклав', 'Микротом', 'Анализатор общего углерода', 'Анализатор биохимический', 'Секвенатор', 'Камера для электропереноса']</t>
+  </si>
+  <si>
+    <t>['Морозильник', 'Термостат\xa0рециркуляционный', 'Анализатор жизнеспособности клеток']</t>
+  </si>
+  <si>
+    <t>['Проточный цитофлуориметр', 'Принтер для этикеток', 'Система визуализации']</t>
+  </si>
+  <si>
+    <t>['Анализатор динамического светорассеяния', 'Струйная мельница', 'Генетический анализатор', 'Блок питания', 'Сухожаровой шкаф', 'Манипулятор переносящий', 'Система капиллярного электрофореза', 'Проточный цитофлуориметр']</t>
+  </si>
+  <si>
+    <t>['Сухожаровой шкаф']</t>
+  </si>
+  <si>
+    <t>['pH-метр', 'Система визуализации', 'Дозатор', 'ИК-спектрометр', 'Титратор', 'Автоматизированная система для переноса колоний']</t>
+  </si>
+  <si>
+    <t>['Коническая мельница', 'Регистратор невидимых частиц']</t>
+  </si>
+  <si>
+    <t>['Криохранилище']</t>
+  </si>
+  <si>
+    <t>['Анализатор светорассеяния', 'Коническая мельница']</t>
+  </si>
+  <si>
+    <t>['Осмометр', 'Станция растворения']</t>
+  </si>
+  <si>
+    <t>['Автостейнер', 'Кондуктометр', 'Френчпрес', 'Биоробот', 'Генератор чистого азота', 'Автоклав', 'Изолятор', 'Хромато-масс-спектрометр', 'Анализатор светорассеяния']</t>
+  </si>
+  <si>
+    <t>['Центрифуга', 'Камера для изоэлектрофокусирования', 'Ротационный испаритель', 'Масс-спектрометр', 'Процессор магнитных частиц', 'Анализатор\xa0гематологический']</t>
+  </si>
+  <si>
+    <t>['Система капиллярного электрофореза', 'Вакуумный концентратор']</t>
+  </si>
+  <si>
+    <t>['Электропоратор', 'Термостат твердотельный', 'Шейкер-инкубатор', 'Система очистки', 'Спектрофотометр', 'Весы', 'Автоматизированная система для переноса колоний', 'Камера для иммуноблоттинга', 'Шейкер-CO2-инкубатор']</t>
+  </si>
+  <si>
+    <t>['Высокоскоростной смеситель-гранулятор']</t>
+  </si>
+  <si>
+    <t>['Рециркулятор', 'Амплификатор', 'Передаточное окно', 'ИК-спектрометр', 'Высокоскоростной смеситель-гранулятор', 'Термошейкер', 'Камера для электропереноса']</t>
+  </si>
+  <si>
+    <t>['Процессор магнитных частиц', 'Лабораторная мебель', 'Генератор чистого водорода', 'Аппарат для определения растворимости таблеток', 'Рабочий стол\xa0роботизированной станции', 'Инкубатор', 'Осмометр', 'Лабораторная мельница для измельчения образцов', 'Струйная мельница']</t>
+  </si>
+  <si>
+    <t>['Вакуумный концентратор', 'Титратор', 'Насос', 'Анализатор биохимический', 'Источник бесперебойного питания', 'Лабораторная мельница для измельчения образцов', 'Трансформатор', 'Система очистки', 'Таблетпресс']</t>
+  </si>
+  <si>
+    <t>['Дозатор', 'Система капиллярного электрофореза', 'Блистерная машина', 'Осмометр', 'Центрифуга', 'Система очистки', 'Таблетпресс']</t>
+  </si>
+  <si>
+    <t>['Инженерное оборудование', 'Кондуктометр', 'Передаточное окно', 'Изолятор', 'Ротационный испаритель']</t>
+  </si>
+  <si>
+    <t>['Термостат твердотельный', 'Генетический анализатор', 'Сушильный\xa0шкаф', 'Лабораторная мебель', 'Облучатель бактерицидный', 'Муфельная печь', 'Счетчик клеток', 'Генератор чистого водорода']</t>
+  </si>
+  <si>
+    <t>['Камера для изоэлектрофокусирования', 'Центрифуга', 'Система визуализации', 'Вортекс', 'Компьютерные системы', 'Аппарат для определения растворимости таблеток']</t>
+  </si>
+  <si>
+    <t>['Ламинар']</t>
+  </si>
+  <si>
+    <t>['Лабораторная мельница для измельчения образцов', 'Электропоратор', 'Френчпрес', 'Бокс химической защиты с двойной системой фильтрации', 'Микробиологический пробоотборник воздуха', 'Инкубатор', 'Регистратор невидимых частиц', 'pH-метр', 'Прибор для определения точки плавления']</t>
+  </si>
+  <si>
+    <t>['Генератор чистого водорода', 'Шейкер-CO2-инкубатор', 'Криохранилище', 'Лабораторный 3D смеситель', 'Осмометр', 'Камера для иммуноблоттинга', 'ПЦР-бокс', 'Система управления биореактором']</t>
+  </si>
+  <si>
+    <t>['Вортекс', 'Пресс ручной', 'Генетический анализатор', 'Криохранилище', 'Инженерное оборудование', 'Детектор', 'Таблетпресс', 'Калориметр']</t>
+  </si>
+  <si>
+    <t>['Амплификатор', 'Холодильник', 'Шейкер-CO2-инкубатор', 'Хроматограф жидкостный', 'Источник бесперебойного питания', 'pH-метр', 'Хромато-масс-спектрометр']</t>
+  </si>
+  <si>
+    <t>['Камера для иммуноблоттинга', 'Коническая мельница', 'Система управления биореактором']</t>
+  </si>
+  <si>
+    <t>['Камера для изоэлектрофокусирования', 'Автоматизированная система подачи плашек', 'Вортекс', 'Коническая мельница', 'ПЦР-бокс', 'Система очистки воды']</t>
+  </si>
+  <si>
+    <t>['Коатер', 'Счетчик клеток', 'Блок питания', 'Амплификатор', 'Лабораторное оборудование', 'Автоматизированная система для клеточного клонирования', 'Реактор', 'Генератор чистого азота', 'Манипулятор переносящий']</t>
+  </si>
+  <si>
+    <t>['Насос', 'Система управления биореактором']</t>
+  </si>
+  <si>
+    <t>['Холодильник', 'Счетчик клеток']</t>
   </si>
 </sst>
 </file>
